--- a/data/trans_bre/P12A1_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-53,54%</t>
+          <t>-16,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>-36,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-75,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-20,81%</t>
         </is>
       </c>
     </row>
@@ -668,32 +720,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 21,66</t>
+          <t>-3,22; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 17,92</t>
+          <t>-2,61; 0,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 10,05</t>
+          <t>-4,9; 0,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 20,79</t>
+          <t>-2,22; 2,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 3,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 1,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,03</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,84</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-79,54%</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-70,81%</t>
+          <t>-34,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>-91,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-85,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-36,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82,76%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 27,54</t>
+          <t>-2,92; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,9; -1,22</t>
+          <t>-14,57; -0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,56; 0,14</t>
+          <t>-16,47; -0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 0,0</t>
+          <t>-22,77; 3,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 4,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 38,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -8,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-96,5; 267,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,97</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,53%</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-38,58%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>-13,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-19,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55,89%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-37,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 22,88</t>
+          <t>-8,4; 3,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 20,37</t>
+          <t>-7,91; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 8,34</t>
+          <t>-9,42; 2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 29,95</t>
+          <t>-3,39; 3,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-92,96; —</t>
+          <t>-3,87; 4,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,65; 172,71</t>
+          <t>-10,32; 1,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,53; 24,03</t>
+          <t>-90,18; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 399,13</t>
+          <t>-88,41; 186,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-86,14; 124,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-68,78; 201,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-68,66; 525,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-86,88; 83,73</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-65,24%</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>-56,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,91%</t>
+          <t>65,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>510,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-56,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>143,34%</t>
         </is>
       </c>
     </row>
@@ -968,40 +1140,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 2,86</t>
+          <t>-1,89; 0,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 12,53</t>
+          <t>-0,89; 2,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 12,58</t>
+          <t>-1,08; 2,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 6,59</t>
+          <t>0,3; 5,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 0,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 3,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,33; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-80,54; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1020,12 +1212,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1035,27 +1227,47 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>135,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>146,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>233,01%</t>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-23,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>153,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-71,99%</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1280,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 0,0</t>
+          <t>-1,81; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 11,17</t>
+          <t>-0,52; 2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1295,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 11,99</t>
+          <t>-2,19; 1,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 3,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 0,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1102,6 +1314,26 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1135,27 +1367,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>120,03%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99,23%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-46,23%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1435,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 16,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 4,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1202,6 +1454,26 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-37,08%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-40,68%</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-48,67%</t>
+          <t>-30,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>-40,89%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-48,48%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-15,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 2,2</t>
+          <t>-2,11; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 1,59</t>
+          <t>-2,47; 0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 0,61</t>
+          <t>-3,43; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,72</t>
+          <t>-3,41; 1,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-85,44; 56,22</t>
+          <t>-0,92; 1,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-76,43; 32,41</t>
+          <t>-1,87; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-78,51; 9,63</t>
+          <t>-82,68; 87,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 197,47</t>
+          <t>-75,42; 44,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-78,98; 2,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-71,38; 96,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-46,27; 176,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-62,53; 92,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
